--- a/comunidadelista.xlsx
+++ b/comunidadelista.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="63">
   <si>
     <t>Nrsessao</t>
   </si>
@@ -21,34 +21,175 @@
     <t>Regiao</t>
   </si>
   <si>
+    <t>CHIMANIMANI</t>
+  </si>
+  <si>
     <t>GORONGOSA</t>
   </si>
   <si>
     <t>nome_comunidade</t>
   </si>
   <si>
+    <t>MUSSAPA</t>
+  </si>
+  <si>
+    <t>MPUNGA</t>
+  </si>
+  <si>
     <t>NHAMU</t>
   </si>
   <si>
+    <t>name_influentes</t>
+  </si>
+  <si>
+    <t>MONICA FEBI</t>
+  </si>
+  <si>
+    <t>ROSA ROBERT</t>
+  </si>
+  <si>
+    <t>FARAI LOURENCO</t>
+  </si>
+  <si>
+    <t>ZORODZAI FRANCE MURUMA</t>
+  </si>
+  <si>
+    <t>XAVIER ALBERTO XAVIER</t>
+  </si>
+  <si>
+    <t>AMOSI TAGURANYICA</t>
+  </si>
+  <si>
+    <t>STEN PITA</t>
+  </si>
+  <si>
+    <t>SAIROSSE FEBI</t>
+  </si>
+  <si>
+    <t>ANA NAIFE</t>
+  </si>
+  <si>
+    <t>BEATRIZ BANDA</t>
+  </si>
+  <si>
+    <t>JOSSEFA PITROSSE</t>
+  </si>
+  <si>
+    <t>ALICE PAULO</t>
+  </si>
+  <si>
+    <t>CRISTINA KAPARADZI</t>
+  </si>
+  <si>
+    <t>GLEDISSE PEDRO</t>
+  </si>
+  <si>
+    <t>MANUEL CHIRUME</t>
+  </si>
+  <si>
+    <t>JOSE MEQUE</t>
+  </si>
+  <si>
+    <t>BENJAMIM MUCUAWAIO</t>
+  </si>
+  <si>
+    <t>MEMBA MABONE</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>PAULO SEVENE</t>
+  </si>
+  <si>
+    <t>MARTA BRAUNDE</t>
+  </si>
+  <si>
+    <t>ISABEL JOSSEFA</t>
+  </si>
+  <si>
+    <t>LUCIA WATCH</t>
+  </si>
+  <si>
+    <t>CELINA CUFENE</t>
+  </si>
+  <si>
+    <t>SERIANO TACANHE</t>
+  </si>
+  <si>
+    <t>ATIRIA BICHOPE</t>
+  </si>
+  <si>
     <t>Sexo</t>
   </si>
   <si>
+    <t>FEMININO</t>
+  </si>
+  <si>
     <t>MASCULINO</t>
   </si>
   <si>
-    <t>FEMININO</t>
-  </si>
-  <si>
-    <t>name_influentes</t>
-  </si>
-  <si>
-    <t>SERIANO TACANHE</t>
-  </si>
-  <si>
-    <t>ATIRIA BICHOPE</t>
-  </si>
-  <si>
     <t>tipo_influencia</t>
+  </si>
+  <si>
+    <t>COLABORADORA DO TRIBUNAL NA COMUNIDADE</t>
+  </si>
+  <si>
+    <t>CHEFE DE 5 CASAS</t>
+  </si>
+  <si>
+    <t>SECRETARIO DO BAIRRO, FACILITADOR DO PARQUE, PRESIDENTE DA ASSOCIACAO DOS APICULTORES</t>
+  </si>
+  <si>
+    <t>CHEFE DE 10 CASAS</t>
+  </si>
+  <si>
+    <t>SECRETARIO DO COMITEM DA LOCALIDADE</t>
+  </si>
+  <si>
+    <t>COORDENADOR DO POSTO ADMIN DE DE ROTANDE</t>
+  </si>
+  <si>
+    <t>SECRETARIO DO PARTIDO</t>
+  </si>
+  <si>
+    <t>PRESIDENTE DA OMM DE ROTANDA</t>
+  </si>
+  <si>
+    <t>MOBILIZADORA DE APOIOS COMUNITARIOS</t>
+  </si>
+  <si>
+    <t>FACILITADOR DO PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>EDUCADORA INFANTIL DE CRIANCAS NECESSITADAS</t>
+  </si>
+  <si>
+    <t>INTERCESSORA E CONSELHEIRA RELIGIOSA</t>
+  </si>
+  <si>
+    <t>PROFETISA</t>
+  </si>
+  <si>
+    <t>REPARADOR DE CAROCA</t>
+  </si>
+  <si>
+    <t>POLICIA COMUNITARIO</t>
+  </si>
+  <si>
+    <t>LIDER DA COMUNIDADE DE MUCUAWAIO</t>
+  </si>
+  <si>
+    <t>RESPONSAVEL PELAS CERIMONIAS TRADICIONAIS DE INVOCACAO DA CHUVA</t>
+  </si>
+  <si>
+    <t>PONTO FOCAL DA MICAIA NA COMUNIDADE</t>
+  </si>
+  <si>
+    <t>SECRETARIA DA OMM, 1A APICULTORA (MULHER) NA COMUNIDADE</t>
+  </si>
+  <si>
+    <t>COLABORADORA DO PARQUE NA AREA DA EDUCACAO DAS CRIANCAS</t>
   </si>
   <si>
     <t>SECRETARIO DA IGREJA ASSEMBLEIA AFRICANA</t>
@@ -104,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -115,19 +256,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -138,19 +279,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -161,111 +302,870 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
